--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/execution-dashboard-collector/execution-summary/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870C7695-60BC-C44C-B827-5BEA466298E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D514798F-3CE0-414D-B1BF-1A4B885E6490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16240" windowWidth="51200" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1770,6 +1770,15 @@
   </si>
   <si>
     <t>LOOP END</t>
+  </si>
+  <si>
+    <t>jansi-64*.*</t>
+  </si>
+  <si>
+    <t>Delete temp files</t>
+  </si>
+  <si>
+    <t>winstone*.jar</t>
   </si>
 </sst>
 </file>
@@ -2033,6 +2042,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2060,10 +2073,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4392,15 +4401,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="50" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="20.5" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20.5" style="23" customWidth="1" collapsed="1"/>
@@ -4413,12 +4422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -4436,20 +4445,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -4459,10 +4468,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -4584,7 +4593,7 @@
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="29" t="s">
         <v>565</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4611,7 +4620,7 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="37"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
@@ -4636,7 +4645,7 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="B9" s="37"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
@@ -4661,7 +4670,7 @@
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="29" t="s">
         <v>566</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4739,12 +4748,22 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="27" t="s">
+        <v>568</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -4758,10 +4777,18 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D514798F-3CE0-414D-B1BF-1A4B885E6490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF45E8-7334-F94C-8A9A-15160F6B9AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1772,13 +1772,13 @@
     <t>LOOP END</t>
   </si>
   <si>
-    <t>jansi-64*.*</t>
-  </si>
-  <si>
     <t>Delete temp files</t>
   </si>
   <si>
-    <t>winstone*.jar</t>
+    <t>jansi-64.+</t>
+  </si>
+  <si>
+    <t>winstone.+\.jar</t>
   </si>
 </sst>
 </file>
@@ -4401,18 +4401,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="50" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.1640625" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -4762,7 +4762,7 @@
         <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF45E8-7334-F94C-8A9A-15160F6B9AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604C7C6-3208-0F48-AEFF-D232E9BC45D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1770,15 +1770,6 @@
   </si>
   <si>
     <t>LOOP END</t>
-  </si>
-  <si>
-    <t>Delete temp files</t>
-  </si>
-  <si>
-    <t>jansi-64.+</t>
-  </si>
-  <si>
-    <t>winstone.+\.jar</t>
   </si>
 </sst>
 </file>
@@ -4397,11 +4388,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4748,22 +4739,12 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>567</v>
-      </c>
+      <c r="A13" s="27"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>568</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -4777,18 +4758,10 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>569</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -4988,7 +4961,7 @@
     </row>
     <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -5022,7 +4995,7 @@
     </row>
     <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -9627,40 +9600,6 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="27"/>
-      <c r="B299" s="5"/>
-      <c r="C299" s="13"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="7"/>
-      <c r="G299" s="7"/>
-      <c r="H299" s="7"/>
-      <c r="I299" s="7"/>
-      <c r="J299" s="22"/>
-      <c r="K299" s="3"/>
-      <c r="L299" s="15"/>
-      <c r="M299" s="12"/>
-      <c r="N299" s="15"/>
-      <c r="O299" s="3"/>
-    </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="27"/>
-      <c r="B300" s="5"/>
-      <c r="C300" s="13"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
-      <c r="G300" s="7"/>
-      <c r="H300" s="7"/>
-      <c r="I300" s="7"/>
-      <c r="J300" s="22"/>
-      <c r="K300" s="3"/>
-      <c r="L300" s="15"/>
-      <c r="M300" s="12"/>
-      <c r="N300" s="15"/>
-      <c r="O300" s="3"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -9669,7 +9608,7 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
+  <conditionalFormatting sqref="N1 N299:N1048576 N3:N98">
     <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -9680,22 +9619,22 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101:N300">
+  <conditionalFormatting sqref="N99:N298">
     <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
-      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
-      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
-      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C300" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C298" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D300" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D298" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604C7C6-3208-0F48-AEFF-D232E9BC45D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D34629-E56E-D24E-BC4B-A84418177403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1770,6 +1770,42 @@
   </si>
   <si>
     <t>LOOP END</t>
+  </si>
+  <si>
+    <t>Delete Old Output</t>
+  </si>
+  <si>
+    <t>oldOutput</t>
+  </si>
+  <si>
+    <t>$(syspath|out|base)</t>
+  </si>
+  <si>
+    <t>determine cut off date</t>
+  </si>
+  <si>
+    <t>cutoffDate</t>
+  </si>
+  <si>
+    <t>$(date|addDay|$(sysdate|now|MM/dd/yyyy HH:mm:ss)|-3)</t>
+  </si>
+  <si>
+    <t>lastMod &lt; $(date|stdFormat|${cutoffDate}|epoch)</t>
+  </si>
+  <si>
+    <t>SkipIf( ${foldersNotDeleted} is empty )</t>
+  </si>
+  <si>
+    <t>LOOP START: Delete folders from oldOutput</t>
+  </si>
+  <si>
+    <t>$(array|length|${oldOutput})</t>
+  </si>
+  <si>
+    <t>$(array|item|${oldOutput}|${counter})</t>
+  </si>
+  <si>
+    <t>List folders which are not deleted (but should be)</t>
   </si>
 </sst>
 </file>
@@ -4392,7 +4428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4403,7 +4439,7 @@
     <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.1640625" style="23" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="41" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -4715,7 +4751,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4731,7 +4767,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>574</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
       <c r="M12" s="12"/>
@@ -4739,12 +4777,24 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>572</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -4758,11 +4808,21 @@
     <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>573</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
@@ -4775,10 +4835,18 @@
     <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -4791,11 +4859,21 @@
     </row>
     <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>553</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4808,11 +4886,19 @@
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>555</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -4825,11 +4911,19 @@
     </row>
     <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>557</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -4842,11 +4936,21 @@
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>558</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -4859,12 +4963,24 @@
     </row>
     <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="B20" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>573</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
@@ -4874,17 +4990,25 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>563</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>574</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15"/>
       <c r="M21" s="12"/>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D34629-E56E-D24E-BC4B-A84418177403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41D60C-A3A6-3644-928C-556A8A79EB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="35540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -823,9 +823,6 @@
     <t>saveAsText(pdf,destination)</t>
   </si>
   <si>
-    <t>assertNotContains(text,substring)</t>
-  </si>
-  <si>
     <t>macro(file,sheet,name)</t>
   </si>
   <si>
@@ -1117,12 +1114,6 @@
     <t>assertLocatorNotPresent(locator)</t>
   </si>
   <si>
-    <t>assertAttributeContains(locator,attrName,contains)</t>
-  </si>
-  <si>
-    <t>assertAttributeNotContains(locator,attrName,contains)</t>
-  </si>
-  <si>
     <t>getRowCount(var)</t>
   </si>
   <si>
@@ -1195,9 +1186,6 @@
     <t>moveTo(var,profile,local,remote)</t>
   </si>
   <si>
-    <t>saveMatches(var,path,filePattern)</t>
-  </si>
-  <si>
     <t>scpCopyFrom(var,profile,remote,local)</t>
   </si>
   <si>
@@ -1634,9 +1622,6 @@
   </si>
   <si>
     <t>tail(id,file)</t>
-  </si>
-  <si>
-    <t>assertTextNotContains(locator,text)</t>
   </si>
   <si>
     <t>typeKeys(os,keystrokes)</t>
@@ -1806,6 +1791,39 @@
   </si>
   <si>
     <t>List folders which are not deleted (but should be)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>(empty)</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE135"/>
+  <dimension ref="A1:AE138"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2469,16 +2487,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -2496,22 +2514,22 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q1" t="s">
         <v>192</v>
@@ -2526,19 +2544,19 @@
         <v>51</v>
       </c>
       <c r="U1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="V1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="W1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="X1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Y1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -2553,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AE1" t="s">
         <v>223</v>
@@ -2561,19 +2579,19 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -2585,34 +2603,34 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="S2" t="s">
         <v>249</v>
@@ -2621,19 +2639,19 @@
         <v>213</v>
       </c>
       <c r="U2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="V2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="W2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="X2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Y2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z2" t="s">
         <v>94</v>
@@ -2648,30 +2666,30 @@
         <v>179</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AE2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
         <v>86</v>
@@ -2680,28 +2698,28 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N3" t="s">
         <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="R3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="S3" t="s">
         <v>236</v>
@@ -2710,16 +2728,16 @@
         <v>214</v>
       </c>
       <c r="U3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="W3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="X3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Y3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z3" t="s">
         <v>95</v>
@@ -2731,7 +2749,7 @@
         <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AD3" t="s">
         <v>180</v>
@@ -2742,13 +2760,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -2757,31 +2775,31 @@
         <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>576</v>
       </c>
       <c r="M4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -2793,19 +2811,19 @@
         <v>215</v>
       </c>
       <c r="U4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="X4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>578</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -2817,7 +2835,7 @@
         <v>180</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AE4" t="s">
         <v>225</v>
@@ -2825,40 +2843,40 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -2870,16 +2888,16 @@
         <v>216</v>
       </c>
       <c r="U5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="W5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="X5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>579</v>
       </c>
       <c r="AA5" t="s">
         <v>170</v>
@@ -2891,7 +2909,7 @@
         <v>181</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AE5" t="s">
         <v>226</v>
@@ -2902,34 +2920,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="J6" t="s">
+        <v>575</v>
       </c>
       <c r="K6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>453</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -2938,19 +2959,19 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="U6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="X6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Z6" t="s">
         <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB6" t="s">
         <v>176</v>
@@ -2959,7 +2980,7 @@
         <v>182</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AE6" t="s">
         <v>227</v>
@@ -2970,28 +2991,28 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -3000,19 +3021,19 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="U7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="X7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Z7" t="s">
         <v>97</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AB7" t="s">
         <v>177</v>
@@ -3021,10 +3042,10 @@
         <v>183</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AE7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -3032,25 +3053,25 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="R8" t="s">
         <v>89</v>
@@ -3059,10 +3080,10 @@
         <v>241</v>
       </c>
       <c r="U8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="X8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z8" t="s">
         <v>98</v>
@@ -3077,10 +3098,10 @@
         <v>184</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AE8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -3088,25 +3109,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
@@ -3115,10 +3136,10 @@
         <v>242</v>
       </c>
       <c r="U9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="X9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Z9" t="s">
         <v>205</v>
@@ -3127,7 +3148,7 @@
         <v>185</v>
       </c>
       <c r="AE9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -3135,34 +3156,34 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="R10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="S10" t="s">
         <v>243</v>
       </c>
       <c r="U10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Z10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -3173,25 +3194,25 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="R11" t="s">
         <v>91</v>
@@ -3200,10 +3221,10 @@
         <v>244</v>
       </c>
       <c r="Z11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC11" t="s">
         <v>254</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>255</v>
       </c>
       <c r="AE11" t="s">
         <v>229</v>
@@ -3214,22 +3235,22 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="N12" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -3249,22 +3270,22 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="N13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R13" t="s">
         <v>92</v>
@@ -3273,13 +3294,13 @@
         <v>250</v>
       </c>
       <c r="Z13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC13" t="s">
         <v>188</v>
       </c>
       <c r="AE13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3290,16 +3311,16 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R14" t="s">
         <v>93</v>
@@ -3314,27 +3335,27 @@
         <v>189</v>
       </c>
       <c r="AE14" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="S15" t="s">
         <v>247</v>
@@ -3346,27 +3367,27 @@
         <v>190</v>
       </c>
       <c r="AE15" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="N16" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="R16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="S16" t="s">
         <v>248</v>
@@ -3378,7 +3399,7 @@
         <v>191</v>
       </c>
       <c r="AE16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3386,25 +3407,25 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AC17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AE17" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -3412,13 +3433,13 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -3427,7 +3448,7 @@
         <v>102</v>
       </c>
       <c r="AE18" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3441,13 +3462,13 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
       </c>
       <c r="AE19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3458,53 +3479,53 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
       </c>
       <c r="AE20" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
       </c>
       <c r="AE21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>577</v>
       </c>
       <c r="Z22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -3512,62 +3533,62 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
       </c>
       <c r="AE23" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AE24" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F25" t="s">
         <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>383</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
       </c>
       <c r="AE25" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3575,13 +3596,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -3598,10 +3619,10 @@
         <v>221</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -3618,10 +3639,10 @@
         <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -3632,27 +3653,30 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -3663,7 +3687,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -3677,7 +3701,7 @@
         <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z32" t="s">
         <v>113</v>
@@ -3688,7 +3712,7 @@
         <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z33" t="s">
         <v>114</v>
@@ -3699,10 +3723,10 @@
         <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Z34" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="6:26" x14ac:dyDescent="0.2">
@@ -3710,7 +3734,7 @@
         <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z35" t="s">
         <v>115</v>
@@ -3721,7 +3745,7 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z36" t="s">
         <v>116</v>
@@ -3732,7 +3756,7 @@
         <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z37" t="s">
         <v>206</v>
@@ -3743,7 +3767,7 @@
         <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z38" t="s">
         <v>117</v>
@@ -3754,18 +3778,18 @@
         <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="6:26" x14ac:dyDescent="0.2">
@@ -3773,7 +3797,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="6:26" x14ac:dyDescent="0.2">
@@ -3781,12 +3805,12 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Z43" t="s">
         <v>118</v>
@@ -3794,7 +3818,7 @@
     </row>
     <row r="44" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z44" t="s">
         <v>119</v>
@@ -3802,7 +3826,7 @@
     </row>
     <row r="45" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z45" t="s">
         <v>120</v>
@@ -3810,7 +3834,7 @@
     </row>
     <row r="46" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z46" t="s">
         <v>121</v>
@@ -3818,7 +3842,7 @@
     </row>
     <row r="47" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z47" t="s">
         <v>122</v>
@@ -3826,7 +3850,7 @@
     </row>
     <row r="48" spans="6:26" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -3837,12 +3861,12 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s">
         <v>209</v>
@@ -3850,7 +3874,7 @@
     </row>
     <row r="51" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z51" t="s">
         <v>75</v>
@@ -3858,15 +3882,15 @@
     </row>
     <row r="52" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z53" t="s">
         <v>124</v>
@@ -3874,7 +3898,7 @@
     </row>
     <row r="54" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H54" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Z54" t="s">
         <v>125</v>
@@ -3882,7 +3906,7 @@
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z55" t="s">
         <v>126</v>
@@ -3890,23 +3914,23 @@
     </row>
     <row r="56" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z57" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z58" t="s">
         <v>127</v>
@@ -3914,23 +3938,23 @@
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Z59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z60" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z61" t="s">
         <v>128</v>
@@ -3938,7 +3962,7 @@
     </row>
     <row r="62" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z62" t="s">
         <v>129</v>
@@ -3946,7 +3970,7 @@
     </row>
     <row r="63" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Z63" t="s">
         <v>130</v>
@@ -3954,7 +3978,7 @@
     </row>
     <row r="64" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z64" t="s">
         <v>131</v>
@@ -3962,7 +3986,7 @@
     </row>
     <row r="65" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z65" t="s">
         <v>132</v>
@@ -3970,7 +3994,7 @@
     </row>
     <row r="66" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Z66" t="s">
         <v>133</v>
@@ -3978,7 +4002,7 @@
     </row>
     <row r="67" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H67" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z67" t="s">
         <v>134</v>
@@ -3986,23 +4010,23 @@
     </row>
     <row r="68" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z68" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z69" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z70" t="s">
         <v>210</v>
@@ -4010,23 +4034,23 @@
     </row>
     <row r="71" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H71" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Z71" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z73" t="s">
         <v>135</v>
@@ -4034,7 +4058,7 @@
     </row>
     <row r="74" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z74" t="s">
         <v>136</v>
@@ -4042,7 +4066,7 @@
     </row>
     <row r="75" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H75" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Z75" t="s">
         <v>137</v>
@@ -4050,7 +4074,7 @@
     </row>
     <row r="76" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z76" t="s">
         <v>138</v>
@@ -4058,7 +4082,7 @@
     </row>
     <row r="77" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Z77" t="s">
         <v>193</v>
@@ -4066,7 +4090,7 @@
     </row>
     <row r="78" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z78" t="s">
         <v>194</v>
@@ -4074,23 +4098,23 @@
     </row>
     <row r="79" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z79" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z80" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z81" t="s">
         <v>139</v>
@@ -4098,7 +4122,7 @@
     </row>
     <row r="82" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Z82" t="s">
         <v>140</v>
@@ -4106,7 +4130,7 @@
     </row>
     <row r="83" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Z83" t="s">
         <v>141</v>
@@ -4114,15 +4138,15 @@
     </row>
     <row r="84" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z84" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z85" t="s">
         <v>142</v>
@@ -4130,7 +4154,7 @@
     </row>
     <row r="86" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z86" t="s">
         <v>143</v>
@@ -4138,7 +4162,7 @@
     </row>
     <row r="87" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z87" t="s">
         <v>195</v>
@@ -4146,274 +4170,289 @@
     </row>
     <row r="88" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H88" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Z88" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z90" t="s">
-        <v>449</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z93" t="s">
-        <v>541</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z94" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z98" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z107" t="s">
-        <v>545</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="8:26" x14ac:dyDescent="0.2">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z127" t="s">
-        <v>539</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>534</v>
       </c>
     </row>
     <row r="131" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4428,7 +4467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4436,9 +4475,11 @@
     <col min="1" max="1" width="20.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="50" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="41" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -4462,10 +4503,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -4481,7 +4522,7 @@
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4491,7 +4532,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -4564,27 +4605,29 @@
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>375</v>
+        <v>577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>544</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="22"/>
       <c r="K5" s="3"/>
@@ -4603,10 +4646,10 @@
         <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4621,19 +4664,19 @@
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4652,13 +4695,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4680,10 +4723,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4698,7 +4741,7 @@
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="29" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>50</v>
@@ -4707,10 +4750,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4725,24 +4768,26 @@
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>375</v>
+        <v>577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>544</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="22"/>
       <c r="K11" s="3"/>
@@ -4751,7 +4796,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4761,14 +4806,14 @@
         <v>68</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
@@ -4778,10 +4823,10 @@
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -4790,10 +4835,10 @@
         <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4812,18 +4857,20 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>375</v>
+        <v>577</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
       <c r="K14" s="3"/>
@@ -4842,10 +4889,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4860,19 +4907,19 @@
     <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="29" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4891,13 +4938,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4919,10 +4966,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -4937,7 +4984,7 @@
     <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="29" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>50</v>
@@ -4946,10 +4993,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4964,24 +5011,26 @@
     <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>375</v>
+        <v>577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>568</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>584</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
       <c r="K20" s="3"/>
@@ -5000,14 +5049,14 @@
         <v>68</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15"/>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/execution-dashboard/execution-summary/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\execution-dashboard\execution-summary\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41D60C-A3A6-3644-928C-556A8A79EB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE54A0-A53A-4678-8F1F-69D599C50C55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="35540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -21,39 +21,40 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$42</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1360,9 +1361,6 @@
     <t>assertTextMatches(text,minMatch,scrollTo)</t>
   </si>
   <si>
-    <t>checkAll(locator)</t>
-  </si>
-  <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
   <si>
@@ -1375,9 +1373,6 @@
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
   <si>
-    <t>uncheckAll(locator)</t>
-  </si>
-  <si>
     <t>replyCancel(text)</t>
   </si>
   <si>
@@ -1424,9 +1419,6 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
-  </si>
-  <si>
-    <t>colorbit(source,bit,saveTo)</t>
   </si>
   <si>
     <t>base64(var,file)</t>
@@ -1824,6 +1816,84 @@
   </si>
   <si>
     <t>(empty)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -2471,18 +2541,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE138"/>
+  <dimension ref="A1:AF145"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2490,13 +2560,13 @@
         <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -2526,10 +2596,10 @@
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q1" t="s">
         <v>192</v>
@@ -2559,25 +2629,28 @@
         <v>388</v>
       </c>
       <c r="Z1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>405</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -2585,13 +2658,13 @@
         <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -2603,13 +2676,13 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="L2" t="s">
         <v>310</v>
@@ -2621,10 +2694,10 @@
         <v>426</v>
       </c>
       <c r="O2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q2" t="s">
         <v>408</v>
@@ -2636,7 +2709,7 @@
         <v>249</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>592</v>
       </c>
       <c r="U2" t="s">
         <v>389</v>
@@ -2654,39 +2727,42 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>423</v>
       </c>
-      <c r="AE2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
         <v>357</v>
@@ -2698,7 +2774,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K3" t="s">
         <v>344</v>
@@ -2713,10 +2789,10 @@
         <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="R3" t="s">
         <v>422</v>
@@ -2725,7 +2801,7 @@
         <v>236</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
       <c r="U3" t="s">
         <v>390</v>
@@ -2740,33 +2816,36 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>356</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>366</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -2778,16 +2857,16 @@
         <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
       </c>
       <c r="L4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M4" t="s">
         <v>330</v>
@@ -2796,10 +2875,10 @@
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -2808,7 +2887,7 @@
         <v>237</v>
       </c>
       <c r="T4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U4" t="s">
         <v>391</v>
@@ -2823,48 +2902,51 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="AA4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>415</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
         <v>424</v>
       </c>
       <c r="H5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K5" t="s">
         <v>346</v>
@@ -2876,7 +2958,7 @@
         <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
@@ -2885,7 +2967,7 @@
         <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U5" t="s">
         <v>392</v>
@@ -2896,26 +2978,26 @@
       <c r="X5" t="s">
         <v>351</v>
       </c>
-      <c r="Z5" t="s">
-        <v>579</v>
-      </c>
       <c r="AA5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
-        <v>175</v>
-      </c>
       <c r="AC5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>416</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2923,34 +3005,34 @@
         <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H6" t="s">
         <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
+        <v>589</v>
       </c>
       <c r="L6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -2959,7 +3041,7 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
         <v>393</v>
@@ -2967,26 +3049,26 @@
       <c r="X6" t="s">
         <v>353</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
-        <v>436</v>
-      </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
       <c r="AC6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>417</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3000,10 +3082,10 @@
         <v>379</v>
       </c>
       <c r="I7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K7" t="s">
-        <v>525</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -3012,7 +3094,7 @@
         <v>310</v>
       </c>
       <c r="O7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -3021,7 +3103,7 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>409</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>394</v>
@@ -3029,26 +3111,26 @@
       <c r="X7" t="s">
         <v>352</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
-        <v>437</v>
-      </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>435</v>
       </c>
       <c r="AC7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>418</v>
       </c>
-      <c r="AE7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3064,6 +3146,9 @@
       <c r="I8" t="s">
         <v>323</v>
       </c>
+      <c r="K8" t="s">
+        <v>522</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3156,7 @@
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R8" t="s">
         <v>89</v>
@@ -3079,32 +3164,35 @@
       <c r="S8" t="s">
         <v>241</v>
       </c>
+      <c r="T8" t="s">
+        <v>382</v>
+      </c>
       <c r="U8" t="s">
         <v>395</v>
       </c>
       <c r="X8" t="s">
         <v>354</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
-        <v>178</v>
-      </c>
       <c r="AC8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>419</v>
       </c>
-      <c r="AE8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3121,13 +3209,13 @@
         <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
@@ -3135,23 +3223,29 @@
       <c r="S9" t="s">
         <v>242</v>
       </c>
+      <c r="T9" t="s">
+        <v>409</v>
+      </c>
       <c r="U9" t="s">
         <v>396</v>
       </c>
       <c r="X9" t="s">
         <v>355</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
       <c r="AC9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3162,7 +3256,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>443</v>
+        <v>586</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -3171,7 +3265,7 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R10" t="s">
         <v>428</v>
@@ -3182,37 +3276,40 @@
       <c r="U10" t="s">
         <v>397</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>252</v>
       </c>
       <c r="AC10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H11" t="s">
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>587</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="O11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="R11" t="s">
         <v>91</v>
@@ -3220,17 +3317,17 @@
       <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3241,16 +3338,16 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>441</v>
       </c>
       <c r="L12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="N12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O12" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -3258,17 +3355,17 @@
       <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3279,7 +3376,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L13" t="s">
         <v>381</v>
@@ -3287,23 +3384,26 @@
       <c r="N13" t="s">
         <v>427</v>
       </c>
+      <c r="O13" t="s">
+        <v>509</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3314,33 +3414,33 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R14" t="s">
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -3348,6 +3448,9 @@
       <c r="H15" t="s">
         <v>259</v>
       </c>
+      <c r="I15" t="s">
+        <v>319</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -3355,24 +3458,24 @@
         <v>38</v>
       </c>
       <c r="R15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F16" t="s">
         <v>376</v>
@@ -3380,29 +3483,32 @@
       <c r="H16" t="s">
         <v>260</v>
       </c>
+      <c r="I16" t="s">
+        <v>320</v>
+      </c>
       <c r="L16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="R16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3418,17 +3524,20 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Z17" t="s">
-        <v>484</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3444,39 +3553,39 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>583</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>481</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>584</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -3484,19 +3593,19 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>585</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -3504,59 +3613,59 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>577</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE22" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -3564,19 +3673,19 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
-        <v>532</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA24" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>525</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -3584,39 +3693,39 @@
       <c r="L25" t="s">
         <v>383</v>
       </c>
-      <c r="Z25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>582</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
@@ -3624,19 +3733,19 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AA27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
@@ -3644,16 +3753,16 @@
       <c r="L28" t="s">
         <v>425</v>
       </c>
-      <c r="Z28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
@@ -3661,16 +3770,16 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>221</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
@@ -3678,781 +3787,828 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AA31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>456</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
-      <c r="Z32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>457</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
-      <c r="Z33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="H34" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
-      <c r="Z35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
-      <c r="Z36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
-      <c r="Z37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
-      <c r="Z38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="Z39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="Z40" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>529</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="Z44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="Z45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="Z46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+      <c r="AA47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="Z48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="Z50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="Z51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA51" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="Z52" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="Z53" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="Z54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA54" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="Z55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="Z56" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="Z57" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="Z58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="Z60" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="Z61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="Z62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="Z63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="Z64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="Z65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="Z66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="Z67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="Z68" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="Z69" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="Z70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA70" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="Z72" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="Z73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="Z74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="Z75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="Z76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="Z78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="Z79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="Z80" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="Z81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA81" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="Z82" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="Z83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="Z84" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="Z85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="Z86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA86" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="Z87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
-        <v>518</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="Z89" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="Z90" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA90" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="Z91" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA91" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="Z92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="Z93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA93" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="Z94" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="Z95" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="Z96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="Z97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="AA97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA100" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z99" t="s">
+    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA101" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA102" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA103" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA104" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z100" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z101" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z102" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z103" t="s">
+    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA105" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z104" t="s">
+    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA106" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z105" t="s">
+    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z106" t="s">
+    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z107" t="s">
+    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA109" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z108" t="s">
+    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA110" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA111" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z109" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z110" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z111" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="Z112" t="s">
+    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AA112" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA113" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA114" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA115" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z113" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z114" t="s">
+    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA116" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA117" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z115" t="s">
+    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA118" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z116" t="s">
+    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA119" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z117" t="s">
+    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA120" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA121" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z118" t="s">
+    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z119" t="s">
+    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA123" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z120" t="s">
+    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA125" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z121" t="s">
+    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z122" t="s">
+    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z123" t="s">
+    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z124" t="s">
+    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z125" t="s">
+    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA130" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z126" t="s">
+    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z127" t="s">
+    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z128" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z129" t="s">
+    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA134" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z130" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z131" t="s">
+    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA136" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z132" t="s">
+    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA138" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z133" t="s">
+    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z134" t="s">
+    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA140" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z135" t="s">
+    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA141" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z136" t="s">
+    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA142" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z137" t="s">
+    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z138" t="s">
+    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4467,29 +4623,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="20.125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="41" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4520,9 +4676,9 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4532,7 +4688,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -4541,7 +4697,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4558,7 +4714,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4603,30 +4759,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="22"/>
@@ -4636,7 +4792,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4646,10 +4802,10 @@
         <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4661,10 +4817,10 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="29" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -4673,10 +4829,10 @@
         <v>316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4688,7 +4844,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13" t="s">
@@ -4698,10 +4854,10 @@
         <v>310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4713,7 +4869,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="29"/>
       <c r="C9" s="13" t="s">
@@ -4723,10 +4879,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4738,10 +4894,10 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>50</v>
@@ -4750,10 +4906,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4765,28 +4921,28 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="22"/>
@@ -4796,7 +4952,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4806,14 +4962,14 @@
         <v>68</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
@@ -4821,12 +4977,12 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -4835,10 +4991,10 @@
         <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4850,26 +5006,26 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
@@ -4879,7 +5035,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4889,10 +5045,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4904,10 +5060,10 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="29" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -4916,10 +5072,10 @@
         <v>316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -4931,7 +5087,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13" t="s">
@@ -4941,10 +5097,10 @@
         <v>310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -4956,7 +5112,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13" t="s">
@@ -4966,10 +5122,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -4981,10 +5137,10 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>50</v>
@@ -4993,10 +5149,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5008,28 +5164,28 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
@@ -5039,7 +5195,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -5049,14 +5205,14 @@
         <v>68</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15"/>
@@ -5064,7 +5220,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5081,7 +5237,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5098,7 +5254,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5115,7 +5271,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5132,7 +5288,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="8"/>
       <c r="C26" s="13"/>
@@ -5149,7 +5305,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5166,7 +5322,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5183,7 +5339,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5200,7 +5356,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5217,7 +5373,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5234,7 +5390,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5251,7 +5407,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5268,7 +5424,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5285,7 +5441,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5302,7 +5458,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5319,7 +5475,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5336,7 +5492,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5353,7 +5509,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5370,7 +5526,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5387,7 +5543,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5404,7 +5560,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5421,7 +5577,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5438,7 +5594,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5455,7 +5611,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5472,7 +5628,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5489,7 +5645,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5506,7 +5662,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5523,7 +5679,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5540,7 +5696,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5557,7 +5713,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5574,7 +5730,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5591,7 +5747,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5608,7 +5764,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5625,7 +5781,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5642,7 +5798,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5659,7 +5815,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5676,7 +5832,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5693,7 +5849,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5710,7 +5866,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5727,7 +5883,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5744,7 +5900,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5761,7 +5917,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5778,7 +5934,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5795,7 +5951,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5812,7 +5968,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5829,7 +5985,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5846,7 +6002,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5863,7 +6019,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5880,7 +6036,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5897,7 +6053,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5914,7 +6070,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5931,7 +6087,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5948,7 +6104,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5965,7 +6121,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5982,7 +6138,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5999,7 +6155,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6016,7 +6172,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6033,7 +6189,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6050,7 +6206,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6067,7 +6223,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6084,7 +6240,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6101,7 +6257,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6118,7 +6274,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6135,7 +6291,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6152,7 +6308,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6169,7 +6325,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6186,7 +6342,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6203,7 +6359,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6220,7 +6376,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6237,7 +6393,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6254,7 +6410,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6271,7 +6427,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6288,7 +6444,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6305,7 +6461,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6322,7 +6478,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6339,7 +6495,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6356,7 +6512,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6373,7 +6529,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6390,7 +6546,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6407,7 +6563,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6424,7 +6580,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6441,7 +6597,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6458,7 +6614,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6475,7 +6631,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6492,7 +6648,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6509,7 +6665,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6526,7 +6682,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6543,7 +6699,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6560,7 +6716,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6577,7 +6733,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6594,7 +6750,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6611,7 +6767,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6628,7 +6784,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6645,7 +6801,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6662,7 +6818,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6679,7 +6835,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6696,7 +6852,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6713,7 +6869,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6730,7 +6886,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6747,7 +6903,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6764,7 +6920,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6781,7 +6937,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6798,7 +6954,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6815,7 +6971,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6832,7 +6988,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6849,7 +7005,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6866,7 +7022,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6883,7 +7039,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6900,7 +7056,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6917,7 +7073,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6934,7 +7090,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6951,7 +7107,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6968,7 +7124,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6985,7 +7141,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -7002,7 +7158,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -7019,7 +7175,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -7036,7 +7192,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -7053,7 +7209,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -7070,7 +7226,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -7087,7 +7243,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -7104,7 +7260,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -7121,7 +7277,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -7138,7 +7294,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7155,7 +7311,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7172,7 +7328,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7189,7 +7345,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7206,7 +7362,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7223,7 +7379,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7240,7 +7396,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7257,7 +7413,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7274,7 +7430,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7291,7 +7447,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7308,7 +7464,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7325,7 +7481,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7342,7 +7498,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7359,7 +7515,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7376,7 +7532,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7393,7 +7549,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7410,7 +7566,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7427,7 +7583,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7444,7 +7600,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7461,7 +7617,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7478,7 +7634,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7495,7 +7651,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7512,7 +7668,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7529,7 +7685,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7546,7 +7702,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7563,7 +7719,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7580,7 +7736,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7597,7 +7753,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7614,7 +7770,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7631,7 +7787,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7648,7 +7804,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7665,7 +7821,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7682,7 +7838,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7699,7 +7855,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7716,7 +7872,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7733,7 +7889,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7750,7 +7906,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7767,7 +7923,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7784,7 +7940,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7801,7 +7957,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7818,7 +7974,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7835,7 +7991,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7852,7 +8008,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7869,7 +8025,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7886,7 +8042,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7903,7 +8059,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7920,7 +8076,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7937,7 +8093,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7954,7 +8110,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7971,7 +8127,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7988,7 +8144,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -8005,7 +8161,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -8022,7 +8178,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -8039,7 +8195,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -8056,7 +8212,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -8073,7 +8229,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -8090,7 +8246,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -8107,7 +8263,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -8124,7 +8280,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8141,7 +8297,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8158,7 +8314,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8175,7 +8331,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8192,7 +8348,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8209,7 +8365,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8226,7 +8382,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8243,7 +8399,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8260,7 +8416,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8277,7 +8433,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8294,7 +8450,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8311,7 +8467,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8328,7 +8484,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8345,7 +8501,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8362,7 +8518,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8379,7 +8535,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8396,7 +8552,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8413,7 +8569,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8430,7 +8586,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8447,7 +8603,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8464,7 +8620,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8481,7 +8637,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8498,7 +8654,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8515,7 +8671,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8532,7 +8688,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8549,7 +8705,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8566,7 +8722,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8583,7 +8739,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8600,7 +8756,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8617,7 +8773,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8634,7 +8790,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8651,7 +8807,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8668,7 +8824,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8685,7 +8841,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8702,7 +8858,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8719,7 +8875,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8736,7 +8892,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8753,7 +8909,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8770,7 +8926,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8787,7 +8943,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8804,7 +8960,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8821,7 +8977,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8838,7 +8994,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8855,7 +9011,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8872,7 +9028,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8889,7 +9045,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8906,7 +9062,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8923,7 +9079,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8940,7 +9096,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8957,7 +9113,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8974,7 +9130,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8991,7 +9147,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -9008,7 +9164,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -9025,7 +9181,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -9042,7 +9198,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -9059,7 +9215,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -9076,7 +9232,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -9093,7 +9249,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -9110,7 +9266,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -9127,7 +9283,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9144,7 +9300,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9161,7 +9317,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9178,7 +9334,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9195,7 +9351,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9212,7 +9368,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9229,7 +9385,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9246,7 +9402,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9263,7 +9419,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9280,7 +9436,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9297,7 +9453,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9314,7 +9470,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9331,7 +9487,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9348,7 +9504,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9365,7 +9521,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9382,7 +9538,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9399,7 +9555,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9416,7 +9572,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9433,7 +9589,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9450,7 +9606,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9467,7 +9623,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9484,7 +9640,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9501,7 +9657,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9518,7 +9674,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9535,7 +9691,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9552,7 +9708,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9569,7 +9725,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9586,7 +9742,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9603,7 +9759,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9620,7 +9776,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9637,7 +9793,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9654,7 +9810,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9671,7 +9827,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9688,7 +9844,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9705,7 +9861,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9722,7 +9878,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9739,7 +9895,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9756,7 +9912,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>

--- a/execution-summary/artifact/script/delete-temp-files.xlsx
+++ b/execution-summary/artifact/script/delete-temp-files.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\execution-dashboard\execution-summary\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE54A0-A53A-4678-8F1F-69D599C50C55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21BD048-FB0E-4C1E-915B-A6DA51508F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -47,19 +47,28 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="656">
   <si>
     <t>description</t>
   </si>
@@ -560,9 +569,6 @@
     <t>verifyText(locator,text)</t>
   </si>
   <si>
-    <t>waitForElementPresent(locator)</t>
-  </si>
-  <si>
     <t>waitForPopUp(winId,waitMs)</t>
   </si>
   <si>
@@ -1682,9 +1688,6 @@
     <t>saveText(profile,image,var)</t>
   </si>
   <si>
-    <t>screenshot(file,locator)</t>
-  </si>
-  <si>
     <t>Delete Temp Folders</t>
   </si>
   <si>
@@ -1716,9 +1719,6 @@
   </si>
   <si>
     <t>$(array|item|${folderList}|${counter})</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>1</t>
@@ -1894,13 +1894,166 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1984,6 +2137,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2056,7 +2216,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2188,6 +2348,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2541,7 +2705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2552,21 +2716,21 @@
     <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -2584,87 +2748,90 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R1" t="s">
         <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T1" t="s">
         <v>51</v>
       </c>
       <c r="U1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V1" t="s">
+        <v>402</v>
+      </c>
+      <c r="W1" t="s">
+        <v>403</v>
+      </c>
+      <c r="X1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y1" t="s">
         <v>387</v>
       </c>
-      <c r="V1" t="s">
-        <v>403</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
         <v>404</v>
       </c>
-      <c r="X1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>582</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="B2" t="s">
-        <v>364</v>
-      </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -2676,96 +2843,99 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="U2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V2" t="s">
+        <v>409</v>
+      </c>
+      <c r="W2" t="s">
         <v>410</v>
       </c>
-      <c r="W2" t="s">
-        <v>411</v>
-      </c>
       <c r="X2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Y2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AA2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
-        <v>167</v>
-      </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AD2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AE2" t="s">
-        <v>423</v>
+        <v>178</v>
       </c>
       <c r="AF2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F3" t="s">
         <v>446</v>
       </c>
-      <c r="D3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F3" t="s">
-        <v>447</v>
-      </c>
       <c r="G3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H3" t="s">
         <v>86</v>
@@ -2774,78 +2944,81 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N3" t="s">
         <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="U3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA3" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
-        <v>168</v>
-      </c>
       <c r="AC3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AD3" t="s">
-        <v>356</v>
+        <v>172</v>
       </c>
       <c r="AE3" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="AF3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -2854,300 +3027,312 @@
         <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Z4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AA4" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="AB4" t="s">
-        <v>169</v>
+        <v>572</v>
       </c>
       <c r="AC4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AD4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AE4" t="s">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="AF4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I5" t="s">
         <v>448</v>
       </c>
-      <c r="G5" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" t="s">
-        <v>532</v>
-      </c>
-      <c r="I5" t="s">
-        <v>449</v>
-      </c>
       <c r="J5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="X5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA5" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>573</v>
       </c>
       <c r="AC5" t="s">
-        <v>606</v>
+        <v>169</v>
       </c>
       <c r="AD5" t="s">
-        <v>181</v>
+        <v>603</v>
       </c>
       <c r="AE5" t="s">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
       </c>
       <c r="O6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
-        <v>434</v>
-      </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="AD6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AE6" t="s">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="AF6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
       </c>
       <c r="S7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
-        <v>435</v>
-      </c>
       <c r="AC7" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
       <c r="AD7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AE7" t="s">
-        <v>418</v>
+        <v>182</v>
       </c>
       <c r="AF7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -3156,107 +3341,113 @@
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R8" t="s">
         <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AA8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
-        <v>171</v>
-      </c>
       <c r="AC8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AD8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AE8" t="s">
-        <v>419</v>
+        <v>183</v>
       </c>
       <c r="AF8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R9" t="s">
         <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>178</v>
+        <v>617</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>204</v>
       </c>
       <c r="AD9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -3265,145 +3456,157 @@
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>607</v>
+        <v>618</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>251</v>
       </c>
       <c r="AD10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R11" t="s">
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>609</v>
       </c>
       <c r="AA11" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AA12" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>591</v>
+        <v>244</v>
       </c>
       <c r="AA13" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3411,45 +3614,48 @@
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R14" t="s">
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>588</v>
       </c>
       <c r="AA14" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -3458,65 +3664,71 @@
         <v>38</v>
       </c>
       <c r="R15" t="s">
+        <v>478</v>
+      </c>
+      <c r="S15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" t="s">
+        <v>319</v>
+      </c>
+      <c r="L16" t="s">
+        <v>474</v>
+      </c>
+      <c r="N16" t="s">
+        <v>527</v>
+      </c>
+      <c r="R16" t="s">
         <v>479</v>
       </c>
-      <c r="S15" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>597</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="S16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE16" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s">
         <v>376</v>
       </c>
-      <c r="H16" t="s">
-        <v>260</v>
-      </c>
-      <c r="I16" t="s">
-        <v>320</v>
-      </c>
-      <c r="L16" t="s">
-        <v>475</v>
-      </c>
-      <c r="N16" t="s">
-        <v>528</v>
-      </c>
-      <c r="R16" t="s">
-        <v>480</v>
-      </c>
-      <c r="S16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>598</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" t="s">
-        <v>377</v>
-      </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L17" t="s">
         <v>79</v>
@@ -3525,24 +3737,27 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA17" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
-        <v>455</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE17" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -3553,1063 +3768,1171 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>247</v>
+      </c>
       <c r="AA18" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA19" t="s">
-        <v>481</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L20" t="s">
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L21" t="s">
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L22" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AA22" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA23" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L24" t="s">
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF24" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" t="s">
+        <v>606</v>
+      </c>
+      <c r="H25" t="s">
+        <v>273</v>
+      </c>
+      <c r="L25" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG25" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>388</v>
-      </c>
-      <c r="F25" t="s">
-        <v>525</v>
-      </c>
-      <c r="H25" t="s">
-        <v>274</v>
-      </c>
-      <c r="L25" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>524</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="AA26" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>605</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>276</v>
+      </c>
+      <c r="L27" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>437</v>
+      </c>
+      <c r="H30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>404</v>
+      </c>
+      <c r="F32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" t="s">
+        <v>455</v>
+      </c>
+      <c r="H33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>456</v>
+      </c>
+      <c r="H34" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H35" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB36" t="s">
         <v>529</v>
       </c>
-      <c r="AF26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>316</v>
-      </c>
-      <c r="H27" t="s">
-        <v>277</v>
-      </c>
-      <c r="L27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s">
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
         <v>261</v>
       </c>
-      <c r="L28" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>438</v>
-      </c>
-      <c r="H29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>221</v>
-      </c>
-      <c r="H30" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>405</v>
-      </c>
-      <c r="F31" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" t="s">
-        <v>456</v>
-      </c>
-      <c r="H32" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>457</v>
-      </c>
-      <c r="H33" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>407</v>
-      </c>
-      <c r="H34" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+      <c r="AB40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
         <v>67</v>
-      </c>
-      <c r="H40" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>607</v>
+      </c>
+      <c r="H44" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="AB51" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB52" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+    </row>
+    <row r="53" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB70" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA43" t="s">
+    <row r="71" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB102" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB104" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H49" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H51" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="105" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB111" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="8:28" x14ac:dyDescent="0.25">
+      <c r="AB112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB113" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="114" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB114" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="115" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB115" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB116" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB118" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="119" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB119" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB122" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="123" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB125" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H53" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H57" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H59" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H61" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H63" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H65" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H67" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H69" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H71" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H75" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H77" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H81" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H82" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H83" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H84" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H85" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H87" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H88" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H89" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H90" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H91" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H92" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H93" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H94" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H95" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H96" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="126" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB131" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB132" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="133" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB136" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="137" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB138" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB142" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB143" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="144" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB144" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
+    <row r="145" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB145" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="146" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB146" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="147" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB147" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
-        <v>166</v>
+    <row r="148" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB148" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="149" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB149" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="150" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB150" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="151" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB151" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4623,7 +4946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,10 +4982,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -4678,7 +5001,7 @@
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4688,7 +5011,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -4716,13 +5039,13 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -4761,28 +5084,28 @@
     </row>
     <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="22"/>
@@ -4802,10 +5125,10 @@
         <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4820,19 +5143,19 @@
     <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="29" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4851,13 +5174,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -4879,10 +5202,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>655</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -4897,7 +5220,7 @@
     <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="29" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>50</v>
@@ -4906,10 +5229,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4924,25 +5247,25 @@
     <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="22"/>
@@ -4962,14 +5285,14 @@
         <v>68</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="15"/>
@@ -4979,10 +5302,10 @@
     </row>
     <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -4991,10 +5314,10 @@
         <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5013,19 +5336,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
@@ -5045,10 +5368,10 @@
         <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5063,19 +5386,19 @@
     <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="29" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5094,13 +5417,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5122,10 +5445,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>655</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5140,7 +5463,7 @@
     <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="29" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>50</v>
@@ -5149,10 +5472,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5167,25 +5490,25 @@
     <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="22"/>
@@ -5205,14 +5528,14 @@
         <v>68</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15"/>
@@ -9968,5 +10291,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>